--- a/2021Summer/MC_WQ_Data_Field_Measurements_Active_21.xlsx
+++ b/2021Summer/MC_WQ_Data_Field_Measurements_Active_21.xlsx
@@ -6537,8 +6537,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B5FBB0E65864894E8CBC27C3C3539EE1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17d6200828c8bee3e420ff6b8d9697fb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e6f0352-0485-4230-980d-978849d94bed" xmlns:ns3="ffa9c844-b58c-467a-8da0-63a09c29fbd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc95b1ab0046be951e4f809558263365" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B5FBB0E65864894E8CBC27C3C3539EE1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="228a4ba5e1b26d322cdbb565d7ed90e3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e6f0352-0485-4230-980d-978849d94bed" xmlns:ns3="ffa9c844-b58c-467a-8da0-63a09c29fbd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cac5404ba05b84fcbf6e510757b6ae84" ns2:_="" ns3:_="">
     <xsd:import namespace="7e6f0352-0485-4230-980d-978849d94bed"/>
     <xsd:import namespace="ffa9c844-b58c-467a-8da0-63a09c29fbd9"/>
     <xsd:element name="properties">
@@ -6560,6 +6560,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6625,6 +6626,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ffa9c844-b58c-467a-8da0-63a09c29fbd9" elementFormDefault="qualified">
@@ -6793,5 +6799,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC030433-322F-41B6-9DAB-B9946AAD27C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6D1E95F-8AC9-4AB0-9EED-37C1CCC399D8}"/>
 </file>